--- a/ReadScripts/Hyper_parameter_tuning_RCF.xlsx
+++ b/ReadScripts/Hyper_parameter_tuning_RCF.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacquelineskunda/Documents/GitHub/696/Milestone2/ReadScripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{797FB020-1A50-DD49-8FC9-11ADFFFAEB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{899DDE8C-CBD3-1841-A778-8C4CA20C6A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hyper_parameter_tuning_RCF" sheetId="1" r:id="rId1"/>
@@ -55,15 +55,15 @@
     <t>Criterion = gini</t>
   </si>
   <si>
-    <t>Number of Jobs = 1</t>
+    <t>Number of Jobs = -1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -704,7 +704,7 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,21 +717,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1088,11 +1088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
